--- a/ArduinoControlGUI/bin/Debug/Phase/MPD.xlsx
+++ b/ArduinoControlGUI/bin/Debug/Phase/MPD.xlsx
@@ -73,22 +73,22 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1">
         <v>1</v>
@@ -157,22 +157,22 @@
         <v>1</v>
       </c>
       <c r="AF1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL1">
         <v>1</v>
@@ -192,22 +192,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -282,22 +282,22 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -311,19 +311,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -353,34 +353,34 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -410,19 +410,19 @@
         <v>1</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -430,19 +430,19 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -466,52 +466,52 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -535,33 +535,33 @@
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -585,58 +585,58 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -660,27 +660,27 @@
         <v>1</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -701,70 +701,70 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -785,21 +785,21 @@
         <v>1</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -820,76 +820,76 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -910,18 +910,18 @@
         <v>1</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -939,34 +939,34 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -987,34 +987,34 @@
         <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -1032,15 +1032,15 @@
         <v>1</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1058,28 +1058,28 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1118,28 +1118,28 @@
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1177,25 +1177,25 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1246,25 +1246,25 @@
         <v>1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>1</v>
@@ -1299,22 +1299,22 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1371,22 +1371,22 @@
         <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -1418,22 +1418,22 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1496,22 +1496,22 @@
         <v>1</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
         <v>1</v>
@@ -1537,22 +1537,22 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1621,22 +1621,22 @@
         <v>1</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -1659,22 +1659,22 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1743,22 +1743,22 @@
         <v>1</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14">
         <v>1</v>
@@ -1781,19 +1781,19 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1868,19 +1868,19 @@
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15">
         <v>1</v>
@@ -1900,22 +1900,22 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1990,22 +1990,22 @@
         <v>1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -2022,22 +2022,22 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2112,22 +2112,22 @@
         <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -2144,19 +2144,19 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2195,10 +2195,10 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -2237,19 +2237,19 @@
         <v>1</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -2266,19 +2266,19 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2314,16 +2314,16 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -2359,19 +2359,19 @@
         <v>1</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -2388,19 +2388,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2433,22 +2433,22 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>1</v>
@@ -2481,19 +2481,19 @@
         <v>1</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -2510,19 +2510,19 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2555,22 +2555,22 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -2603,19 +2603,19 @@
         <v>1</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -2632,19 +2632,19 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2680,16 +2680,16 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -2725,19 +2725,19 @@
         <v>1</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -2754,19 +2754,19 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2805,10 +2805,10 @@
         <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>1</v>
@@ -2847,19 +2847,19 @@
         <v>1</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -2876,22 +2876,22 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2966,22 +2966,22 @@
         <v>1</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -2998,22 +2998,22 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -3088,22 +3088,22 @@
         <v>1</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -3123,19 +3123,19 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -3210,19 +3210,19 @@
         <v>1</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26">
         <v>1</v>
@@ -3245,22 +3245,22 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3329,22 +3329,22 @@
         <v>1</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27">
         <v>1</v>
@@ -3367,22 +3367,22 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -3451,22 +3451,22 @@
         <v>1</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28">
         <v>1</v>
@@ -3492,22 +3492,22 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3570,22 +3570,22 @@
         <v>1</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29">
         <v>1</v>
@@ -3617,22 +3617,22 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -3689,22 +3689,22 @@
         <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
         <v>1</v>
@@ -3739,25 +3739,25 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -3808,25 +3808,25 @@
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31">
         <v>1</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3864,28 +3864,28 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -3924,28 +3924,28 @@
         <v>1</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32">
         <v>1</v>
@@ -3963,15 +3963,15 @@
         <v>1</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3989,34 +3989,34 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -4037,34 +4037,34 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33">
         <v>1</v>
@@ -4082,18 +4082,18 @@
         <v>1</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -4114,76 +4114,76 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34">
         <v>1</v>
@@ -4204,21 +4204,21 @@
         <v>1</v>
       </c>
       <c r="AM34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -4239,70 +4239,70 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -4323,27 +4323,27 @@
         <v>1</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4367,58 +4367,58 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -4442,33 +4442,33 @@
         <v>1</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -4492,52 +4492,52 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37">
         <v>1</v>
@@ -4561,19 +4561,19 @@
         <v>1</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -4581,19 +4581,19 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4623,34 +4623,34 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>1</v>
@@ -4680,19 +4680,19 @@
         <v>1</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38">
         <v>1</v>
@@ -4706,22 +4706,22 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -4796,22 +4796,22 @@
         <v>1</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -4831,22 +4831,22 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -4915,22 +4915,22 @@
         <v>1</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40">
         <v>1</v>
@@ -4966,22 +4966,22 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>1</v>
       </c>
       <c r="AF1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL1">
         <v>1</v>
@@ -5085,22 +5085,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5175,22 +5175,22 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -5204,19 +5204,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5246,34 +5246,34 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -5303,19 +5303,19 @@
         <v>1</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -5323,19 +5323,19 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5359,52 +5359,52 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -5428,33 +5428,33 @@
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -5478,58 +5478,58 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -5553,27 +5553,27 @@
         <v>1</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5594,70 +5594,70 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -5678,21 +5678,21 @@
         <v>1</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5713,76 +5713,76 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -5803,18 +5803,18 @@
         <v>1</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5832,34 +5832,34 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -5880,34 +5880,34 @@
         <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -5925,15 +5925,15 @@
         <v>1</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5951,28 +5951,28 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -6011,28 +6011,28 @@
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -6050,7 +6050,7 @@
         <v>1</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -6070,25 +6070,25 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -6139,25 +6139,25 @@
         <v>1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>1</v>
@@ -6192,22 +6192,22 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -6264,22 +6264,22 @@
         <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -6311,22 +6311,22 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -6389,22 +6389,22 @@
         <v>1</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
         <v>1</v>
@@ -6430,22 +6430,22 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -6514,22 +6514,22 @@
         <v>1</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -6552,22 +6552,22 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -6636,22 +6636,22 @@
         <v>1</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14">
         <v>1</v>
@@ -6674,19 +6674,19 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6761,19 +6761,19 @@
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15">
         <v>1</v>
@@ -6793,22 +6793,22 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6883,22 +6883,22 @@
         <v>1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -6915,22 +6915,22 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -7005,22 +7005,22 @@
         <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -7037,19 +7037,19 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -7088,10 +7088,10 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -7130,19 +7130,19 @@
         <v>1</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -7159,19 +7159,19 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -7207,16 +7207,16 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -7252,19 +7252,19 @@
         <v>1</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -7281,19 +7281,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -7326,22 +7326,22 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>1</v>
@@ -7374,19 +7374,19 @@
         <v>1</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -7403,19 +7403,19 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -7448,22 +7448,22 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -7496,19 +7496,19 @@
         <v>1</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -7525,19 +7525,19 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -7573,16 +7573,16 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -7618,19 +7618,19 @@
         <v>1</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -7647,19 +7647,19 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -7698,10 +7698,10 @@
         <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>1</v>
@@ -7740,19 +7740,19 @@
         <v>1</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -7769,22 +7769,22 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -7859,22 +7859,22 @@
         <v>1</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -7891,22 +7891,22 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -7981,22 +7981,22 @@
         <v>1</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -8016,19 +8016,19 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -8103,19 +8103,19 @@
         <v>1</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26">
         <v>1</v>
@@ -8138,22 +8138,22 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -8222,22 +8222,22 @@
         <v>1</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27">
         <v>1</v>
@@ -8260,22 +8260,22 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -8344,22 +8344,22 @@
         <v>1</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28">
         <v>1</v>
@@ -8385,22 +8385,22 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -8463,22 +8463,22 @@
         <v>1</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29">
         <v>1</v>
@@ -8510,22 +8510,22 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -8582,22 +8582,22 @@
         <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
         <v>1</v>
@@ -8632,25 +8632,25 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -8701,25 +8701,25 @@
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31">
         <v>1</v>
@@ -8739,7 +8739,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8757,28 +8757,28 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -8817,28 +8817,28 @@
         <v>1</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32">
         <v>1</v>
@@ -8856,15 +8856,15 @@
         <v>1</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -8882,34 +8882,34 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -8930,34 +8930,34 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33">
         <v>1</v>
@@ -8975,18 +8975,18 @@
         <v>1</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -9007,76 +9007,76 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34">
         <v>1</v>
@@ -9097,21 +9097,21 @@
         <v>1</v>
       </c>
       <c r="AM34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -9132,70 +9132,70 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -9216,27 +9216,27 @@
         <v>1</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -9260,58 +9260,58 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -9335,33 +9335,33 @@
         <v>1</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -9385,52 +9385,52 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37">
         <v>1</v>
@@ -9454,19 +9454,19 @@
         <v>1</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -9474,19 +9474,19 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -9516,34 +9516,34 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>1</v>
@@ -9573,19 +9573,19 @@
         <v>1</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38">
         <v>1</v>
@@ -9599,22 +9599,22 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -9689,22 +9689,22 @@
         <v>1</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -9724,22 +9724,22 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -9808,22 +9808,22 @@
         <v>1</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40">
         <v>1</v>

--- a/ArduinoControlGUI/bin/Debug/Phase/MPD.xlsx
+++ b/ArduinoControlGUI/bin/Debug/Phase/MPD.xlsx
@@ -76,100 +76,100 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK1">
         <v>1</v>
@@ -192,49 +192,49 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -255,49 +255,49 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -311,40 +311,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -389,40 +389,40 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -433,34 +433,34 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -517,34 +517,34 @@
         <v>1</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -552,34 +552,34 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -642,60 +642,60 @@
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -770,51 +770,51 @@
         <v>1</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -895,45 +895,45 @@
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1020,39 +1020,39 @@
         <v>1</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1145,36 +1145,36 @@
         <v>1</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1267,33 +1267,33 @@
         <v>1</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1392,27 +1392,27 @@
         <v>1</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1517,24 +1517,24 @@
         <v>1</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1639,21 +1639,21 @@
         <v>1</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1701,22 +1701,22 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -1764,18 +1764,18 @@
         <v>1</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1820,28 +1820,28 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -1886,18 +1886,18 @@
         <v>1</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1939,34 +1939,34 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2008,18 +2008,18 @@
         <v>1</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2058,40 +2058,40 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -2130,15 +2130,15 @@
         <v>1</v>
       </c>
       <c r="AM17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2177,46 +2177,46 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>1</v>
@@ -2255,12 +2255,12 @@
         <v>1</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2299,46 +2299,46 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -2377,12 +2377,12 @@
         <v>1</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2421,46 +2421,46 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>1</v>
@@ -2499,12 +2499,12 @@
         <v>1</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2543,46 +2543,46 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>1</v>
@@ -2621,12 +2621,12 @@
         <v>1</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2665,46 +2665,46 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>1</v>
@@ -2743,12 +2743,12 @@
         <v>1</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2787,46 +2787,46 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>1</v>
@@ -2865,15 +2865,15 @@
         <v>1</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2912,40 +2912,40 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>1</v>
@@ -2984,18 +2984,18 @@
         <v>1</v>
       </c>
       <c r="AM24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3037,34 +3037,34 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>1</v>
@@ -3106,18 +3106,18 @@
         <v>1</v>
       </c>
       <c r="AM25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3162,28 +3162,28 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -3228,18 +3228,18 @@
         <v>1</v>
       </c>
       <c r="AM26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3287,22 +3287,22 @@
         <v>1</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>1</v>
@@ -3350,21 +3350,21 @@
         <v>1</v>
       </c>
       <c r="AM27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3469,24 +3469,24 @@
         <v>1</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3591,27 +3591,27 @@
         <v>1</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3710,33 +3710,33 @@
         <v>1</v>
       </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3829,36 +3829,36 @@
         <v>1</v>
       </c>
       <c r="AJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3951,39 +3951,39 @@
         <v>1</v>
       </c>
       <c r="AJ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -4070,45 +4070,45 @@
         <v>1</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -4189,51 +4189,51 @@
         <v>1</v>
       </c>
       <c r="AH34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -4308,60 +4308,60 @@
         <v>1</v>
       </c>
       <c r="AG35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4424,34 +4424,34 @@
         <v>1</v>
       </c>
       <c r="AE36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4459,34 +4459,34 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -4543,34 +4543,34 @@
         <v>1</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37">
         <v>1</v>
@@ -4581,40 +4581,40 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -4659,40 +4659,40 @@
         <v>1</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38">
         <v>1</v>
@@ -4706,49 +4706,49 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -4769,49 +4769,49 @@
         <v>1</v>
       </c>
       <c r="X39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -4834,100 +4834,100 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40">
         <v>1</v>
@@ -4969,100 +4969,100 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK1">
         <v>1</v>
@@ -5085,49 +5085,49 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -5148,49 +5148,49 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -5204,40 +5204,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -5282,40 +5282,40 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -5326,34 +5326,34 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -5410,34 +5410,34 @@
         <v>1</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -5445,34 +5445,34 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5535,60 +5535,60 @@
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5663,51 +5663,51 @@
         <v>1</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -5788,45 +5788,45 @@
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -5913,39 +5913,39 @@
         <v>1</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6038,36 +6038,36 @@
         <v>1</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6160,33 +6160,33 @@
         <v>1</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -6285,27 +6285,27 @@
         <v>1</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6410,24 +6410,24 @@
         <v>1</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6532,21 +6532,21 @@
         <v>1</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6594,22 +6594,22 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -6657,18 +6657,18 @@
         <v>1</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6713,28 +6713,28 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -6779,18 +6779,18 @@
         <v>1</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -6832,34 +6832,34 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -6901,18 +6901,18 @@
         <v>1</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6951,40 +6951,40 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -7023,15 +7023,15 @@
         <v>1</v>
       </c>
       <c r="AM17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7070,46 +7070,46 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>1</v>
@@ -7148,12 +7148,12 @@
         <v>1</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7192,46 +7192,46 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -7270,12 +7270,12 @@
         <v>1</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7314,46 +7314,46 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>1</v>
@@ -7392,12 +7392,12 @@
         <v>1</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7436,46 +7436,46 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>1</v>
@@ -7514,12 +7514,12 @@
         <v>1</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7558,46 +7558,46 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>1</v>
@@ -7636,12 +7636,12 @@
         <v>1</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7680,46 +7680,46 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>1</v>
@@ -7758,15 +7758,15 @@
         <v>1</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -7805,40 +7805,40 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>1</v>
@@ -7877,18 +7877,18 @@
         <v>1</v>
       </c>
       <c r="AM24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -7930,34 +7930,34 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>1</v>
@@ -7999,18 +7999,18 @@
         <v>1</v>
       </c>
       <c r="AM25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -8055,28 +8055,28 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -8121,18 +8121,18 @@
         <v>1</v>
       </c>
       <c r="AM26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -8180,22 +8180,22 @@
         <v>1</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>1</v>
@@ -8243,21 +8243,21 @@
         <v>1</v>
       </c>
       <c r="AM27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -8362,24 +8362,24 @@
         <v>1</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -8484,27 +8484,27 @@
         <v>1</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -8603,33 +8603,33 @@
         <v>1</v>
       </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -8722,36 +8722,36 @@
         <v>1</v>
       </c>
       <c r="AJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -8844,39 +8844,39 @@
         <v>1</v>
       </c>
       <c r="AJ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -8963,45 +8963,45 @@
         <v>1</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -9082,51 +9082,51 @@
         <v>1</v>
       </c>
       <c r="AH34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -9201,60 +9201,60 @@
         <v>1</v>
       </c>
       <c r="AG35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -9317,34 +9317,34 @@
         <v>1</v>
       </c>
       <c r="AE36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -9352,34 +9352,34 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -9436,34 +9436,34 @@
         <v>1</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37">
         <v>1</v>
@@ -9474,40 +9474,40 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -9552,40 +9552,40 @@
         <v>1</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38">
         <v>1</v>
@@ -9599,49 +9599,49 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -9662,49 +9662,49 @@
         <v>1</v>
       </c>
       <c r="X39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -9727,100 +9727,100 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40">
         <v>1</v>
